--- a/doc/外设地址分配表.xlsx
+++ b/doc/外设地址分配表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>10进制地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,514 @@
   </si>
   <si>
     <t>TAIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCTL6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBCCR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC12_0CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC12_1CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC12_0DAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC12_1DAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMACTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMACTL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA2CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA0SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA0DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA0SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA2SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA2DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA2SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA0CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA3SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA3DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA4SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA3SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA3CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA4SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA4DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA4CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12CTL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12CTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12IFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MEM15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12MCTL15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDTCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESLO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0TCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0RCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0MCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0BR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0BR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0RXBUF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0TXBUF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1CTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1TCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1RCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1MCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1BR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1BR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1RXBUF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1TXBUF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CIFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CNDAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2COA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCOCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCSCTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCSCTL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVSCTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCTL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCTL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CACTL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CACTL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +705,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,6 +752,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -535,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="L219" sqref="L219:S219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,6 +1187,24 @@
         <f t="shared" si="0"/>
         <v>1F6</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -666,6 +1214,24 @@
         <f t="shared" si="0"/>
         <v>1F4</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -675,6 +1241,24 @@
         <f t="shared" si="0"/>
         <v>1F2</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -684,6 +1268,24 @@
         <f t="shared" si="0"/>
         <v>1F0</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -693,6 +1295,24 @@
         <f t="shared" si="0"/>
         <v>1EE</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
@@ -702,6 +1322,24 @@
         <f t="shared" si="0"/>
         <v>1EC</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -711,6 +1349,24 @@
         <f t="shared" si="0"/>
         <v>1EA</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -720,6 +1376,24 @@
         <f t="shared" si="0"/>
         <v>1E8</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -729,8 +1403,26 @@
         <f t="shared" si="0"/>
         <v>1E6</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>484</v>
       </c>
@@ -738,8 +1430,26 @@
         <f t="shared" si="0"/>
         <v>1E4</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>482</v>
       </c>
@@ -747,8 +1457,26 @@
         <f t="shared" si="0"/>
         <v>1E2</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>480</v>
       </c>
@@ -756,8 +1484,26 @@
         <f t="shared" si="0"/>
         <v>1E0</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>478</v>
       </c>
@@ -765,8 +1511,26 @@
         <f t="shared" si="0"/>
         <v>1DE</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>476</v>
       </c>
@@ -774,8 +1538,26 @@
         <f t="shared" si="0"/>
         <v>1DC</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>474</v>
       </c>
@@ -783,8 +1565,26 @@
         <f t="shared" si="0"/>
         <v>1DA</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>472</v>
       </c>
@@ -792,8 +1592,26 @@
         <f t="shared" si="0"/>
         <v>1D8</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>470</v>
       </c>
@@ -801,8 +1619,26 @@
         <f t="shared" si="0"/>
         <v>1D6</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>468</v>
       </c>
@@ -810,8 +1646,26 @@
         <f t="shared" si="0"/>
         <v>1D4</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>466</v>
       </c>
@@ -819,8 +1673,26 @@
         <f t="shared" si="0"/>
         <v>1D2</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>464</v>
       </c>
@@ -828,8 +1700,26 @@
         <f t="shared" si="0"/>
         <v>1D0</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>462</v>
       </c>
@@ -837,8 +1727,24 @@
         <f t="shared" si="0"/>
         <v>1CE</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>460</v>
       </c>
@@ -846,8 +1752,24 @@
         <f t="shared" si="0"/>
         <v>1CC</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>458</v>
       </c>
@@ -855,8 +1777,26 @@
         <f t="shared" si="0"/>
         <v>1CA</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>456</v>
       </c>
@@ -864,8 +1804,26 @@
         <f t="shared" si="0"/>
         <v>1C8</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>454</v>
       </c>
@@ -874,7 +1832,7 @@
         <v>1C6</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>452</v>
       </c>
@@ -883,7 +1841,7 @@
         <v>1C4</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>450</v>
       </c>
@@ -891,8 +1849,26 @@
         <f t="shared" si="0"/>
         <v>1C2</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>448</v>
       </c>
@@ -900,8 +1876,26 @@
         <f t="shared" si="0"/>
         <v>1C0</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>446</v>
       </c>
@@ -910,7 +1904,7 @@
         <v>1BE</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>444</v>
       </c>
@@ -919,7 +1913,7 @@
         <v>1BC</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>442</v>
       </c>
@@ -928,7 +1922,7 @@
         <v>1BA</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>440</v>
       </c>
@@ -937,7 +1931,7 @@
         <v>1B8</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>438</v>
       </c>
@@ -946,7 +1940,7 @@
         <v>1B6</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>436</v>
       </c>
@@ -955,7 +1949,7 @@
         <v>1B4</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>434</v>
       </c>
@@ -964,7 +1958,7 @@
         <v>1B2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>432</v>
       </c>
@@ -973,7 +1967,7 @@
         <v>1B0</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>430</v>
       </c>
@@ -982,7 +1976,7 @@
         <v>1AE</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>428</v>
       </c>
@@ -991,7 +1985,7 @@
         <v>1AC</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>426</v>
       </c>
@@ -1000,7 +1994,7 @@
         <v>1AA</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>424</v>
       </c>
@@ -1008,8 +2002,26 @@
         <f t="shared" si="0"/>
         <v>1A8</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>422</v>
       </c>
@@ -1017,8 +2029,26 @@
         <f t="shared" si="0"/>
         <v>1A6</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>420</v>
       </c>
@@ -1026,8 +2056,26 @@
         <f t="shared" si="0"/>
         <v>1A4</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>418</v>
       </c>
@@ -1035,8 +2083,26 @@
         <f t="shared" si="0"/>
         <v>1A2</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>416</v>
       </c>
@@ -1044,8 +2110,26 @@
         <f t="shared" si="0"/>
         <v>1A0</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>414</v>
       </c>
@@ -1053,8 +2137,26 @@
         <f t="shared" si="0"/>
         <v>19E</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>412</v>
       </c>
@@ -1062,8 +2164,26 @@
         <f t="shared" si="0"/>
         <v>19C</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>410</v>
       </c>
@@ -1071,8 +2191,26 @@
         <f t="shared" si="0"/>
         <v>19A</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>408</v>
       </c>
@@ -1080,8 +2218,26 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>406</v>
       </c>
@@ -1089,8 +2245,26 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>404</v>
       </c>
@@ -1098,8 +2272,26 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>402</v>
       </c>
@@ -1107,8 +2299,26 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>400</v>
       </c>
@@ -1116,8 +2326,26 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>398</v>
       </c>
@@ -1125,8 +2353,26 @@
         <f t="shared" si="0"/>
         <v>18E</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>396</v>
       </c>
@@ -1134,8 +2380,26 @@
         <f t="shared" si="0"/>
         <v>18C</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>394</v>
       </c>
@@ -1143,8 +2407,26 @@
         <f t="shared" si="0"/>
         <v>18A</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>392</v>
       </c>
@@ -1152,8 +2434,26 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <v>390</v>
       </c>
@@ -1161,6 +2461,24 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
+      <c r="D64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
@@ -1170,6 +2488,24 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
+      <c r="D65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
@@ -1179,6 +2515,24 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
+      <c r="D66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
@@ -1188,6 +2542,24 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
+      <c r="D67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
@@ -1549,6 +2921,24 @@
         <f t="shared" si="1"/>
         <v>15E</v>
       </c>
+      <c r="D84" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B85" s="2">
@@ -1558,6 +2948,24 @@
         <f t="shared" si="1"/>
         <v>15C</v>
       </c>
+      <c r="D85" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B86" s="2">
@@ -1567,6 +2975,24 @@
         <f t="shared" si="1"/>
         <v>15A</v>
       </c>
+      <c r="D86" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B87" s="2">
@@ -1576,6 +3002,24 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
+      <c r="D87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B88" s="2">
@@ -1585,6 +3029,24 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
+      <c r="D88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B89" s="2">
@@ -1594,6 +3056,24 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
+      <c r="D89" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B90" s="2">
@@ -1603,6 +3083,24 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
+      <c r="D90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B91" s="2">
@@ -1612,6 +3110,24 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
+      <c r="D91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
@@ -1621,6 +3137,24 @@
         <f t="shared" si="1"/>
         <v>14E</v>
       </c>
+      <c r="D92" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
@@ -1630,6 +3164,24 @@
         <f t="shared" si="1"/>
         <v>14C</v>
       </c>
+      <c r="D93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
@@ -1639,6 +3191,24 @@
         <f t="shared" si="1"/>
         <v>14A</v>
       </c>
+      <c r="D94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
@@ -1648,6 +3218,24 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
+      <c r="D95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
@@ -1657,6 +3245,24 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
+      <c r="D96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
@@ -1666,6 +3272,24 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
+      <c r="D97" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
@@ -1675,6 +3299,24 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
+      <c r="D98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
@@ -1684,6 +3326,24 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
+      <c r="D99" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
@@ -1693,6 +3353,24 @@
         <f t="shared" si="1"/>
         <v>13E</v>
       </c>
+      <c r="D100" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
@@ -1702,6 +3380,24 @@
         <f t="shared" si="1"/>
         <v>13C</v>
       </c>
+      <c r="D101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
@@ -1711,6 +3407,24 @@
         <f t="shared" si="1"/>
         <v>13A</v>
       </c>
+      <c r="D102" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
@@ -1720,6 +3434,24 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
+      <c r="D103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
@@ -1729,6 +3461,24 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
+      <c r="D104" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
@@ -1738,6 +3488,24 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
+      <c r="D105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
@@ -1747,6 +3515,24 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
+      <c r="D106" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
@@ -1756,6 +3542,24 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
+      <c r="D107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
@@ -1765,24 +3569,24 @@
         <f t="shared" si="1"/>
         <v>12E</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
@@ -1792,6 +3596,24 @@
         <f t="shared" si="1"/>
         <v>12C</v>
       </c>
+      <c r="D109" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
@@ -1801,6 +3623,24 @@
         <f t="shared" si="1"/>
         <v>12A</v>
       </c>
+      <c r="D110" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
@@ -1810,6 +3650,24 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
+      <c r="D111" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
@@ -1820,7 +3678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>292</v>
       </c>
@@ -1828,8 +3686,26 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D113" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>290</v>
       </c>
@@ -1837,8 +3713,26 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D114" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>288</v>
       </c>
@@ -1846,8 +3740,26 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D115" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
         <v>286</v>
       </c>
@@ -1855,8 +3767,26 @@
         <f t="shared" si="1"/>
         <v>11E</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>284</v>
       </c>
@@ -1864,8 +3794,26 @@
         <f t="shared" si="1"/>
         <v>11C</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>282</v>
       </c>
@@ -1873,8 +3821,26 @@
         <f t="shared" si="1"/>
         <v>11A</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D118" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
         <v>280</v>
       </c>
@@ -1882,8 +3848,26 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D119" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
         <v>278</v>
       </c>
@@ -1892,7 +3876,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B121" s="2">
         <v>276</v>
       </c>
@@ -1901,7 +3885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B122" s="2">
         <v>274</v>
       </c>
@@ -1910,7 +3894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B123" s="2">
         <v>272</v>
       </c>
@@ -1919,7 +3903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B124" s="2">
         <v>270</v>
       </c>
@@ -1928,7 +3912,7 @@
         <v>10E</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B125" s="2">
         <v>268</v>
       </c>
@@ -1937,7 +3921,7 @@
         <v>10C</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B126" s="2">
         <v>266</v>
       </c>
@@ -1946,7 +3930,7 @@
         <v>10A</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B127" s="2">
         <v>264</v>
       </c>
@@ -1955,7 +3939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B128" s="2">
         <v>262</v>
       </c>
@@ -2396,7 +4380,7 @@
         <v>A6</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B177" s="2">
         <v>164</v>
       </c>
@@ -2405,7 +4389,7 @@
         <v>A4</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B178" s="2">
         <v>162</v>
       </c>
@@ -2414,7 +4398,7 @@
         <v>A2</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B179" s="2">
         <v>160</v>
       </c>
@@ -2423,7 +4407,7 @@
         <v>A0</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B180" s="2">
         <v>158</v>
       </c>
@@ -2432,7 +4416,7 @@
         <v>9E</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B181" s="2">
         <v>156</v>
       </c>
@@ -2441,7 +4425,7 @@
         <v>9C</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B182" s="2">
         <v>154</v>
       </c>
@@ -2450,7 +4434,7 @@
         <v>9A</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B183" s="2">
         <v>152</v>
       </c>
@@ -2459,7 +4443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B184" s="2">
         <v>150</v>
       </c>
@@ -2468,7 +4452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B185" s="2">
         <v>148</v>
       </c>
@@ -2477,7 +4461,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B186" s="2">
         <v>146</v>
       </c>
@@ -2486,7 +4470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B187" s="2">
         <v>144</v>
       </c>
@@ -2495,7 +4479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B188" s="2">
         <v>142</v>
       </c>
@@ -2503,8 +4487,28 @@
         <f t="shared" si="2"/>
         <v>8E</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D188" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B189" s="2">
         <v>140</v>
       </c>
@@ -2512,8 +4516,28 @@
         <f t="shared" si="2"/>
         <v>8C</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D189" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B190" s="2">
         <v>138</v>
       </c>
@@ -2521,8 +4545,28 @@
         <f t="shared" si="2"/>
         <v>8A</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D190" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B191" s="2">
         <v>136</v>
       </c>
@@ -2530,8 +4574,28 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D191" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B192" s="2">
         <v>134</v>
       </c>
@@ -2539,6 +4603,26 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
+      <c r="D192" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
     </row>
     <row r="193" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B193" s="2">
@@ -2548,6 +4632,26 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
+      <c r="D193" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
     </row>
     <row r="194" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B194" s="2">
@@ -2557,6 +4661,26 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
+      <c r="D194" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
     </row>
     <row r="195" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B195" s="2">
@@ -2566,6 +4690,26 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
+      <c r="D195" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
     </row>
     <row r="196" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B196" s="2">
@@ -2575,6 +4719,26 @@
         <f t="shared" ref="C196:C259" si="3">DEC2HEX(B196)</f>
         <v>7E</v>
       </c>
+      <c r="D196" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B197" s="2">
@@ -2584,22 +4748,26 @@
         <f t="shared" si="3"/>
         <v>7C</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
+      <c r="D197" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
     </row>
     <row r="198" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B198" s="2">
@@ -2609,22 +4777,26 @@
         <f t="shared" si="3"/>
         <v>7A</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
+      <c r="D198" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="5"/>
     </row>
     <row r="199" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B199" s="2">
@@ -2634,22 +4806,26 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
+      <c r="D199" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
     </row>
     <row r="200" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B200" s="2">
@@ -2659,6 +4835,26 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
+      <c r="D200" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
     </row>
     <row r="201" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B201" s="2">
@@ -2668,6 +4864,26 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
+      <c r="D201" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
     </row>
     <row r="202" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B202" s="2">
@@ -2677,6 +4893,26 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
+      <c r="D202" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+      <c r="S202" s="5"/>
     </row>
     <row r="203" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B203" s="2">
@@ -2686,6 +4922,26 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
+      <c r="D203" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="5"/>
     </row>
     <row r="204" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B204" s="2">
@@ -2732,7 +4988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B209" s="2">
         <v>100</v>
       </c>
@@ -2741,7 +4997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B210" s="2">
         <v>98</v>
       </c>
@@ -2750,7 +5006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B211" s="2">
         <v>96</v>
       </c>
@@ -2759,7 +5015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B212" s="2">
         <v>94</v>
       </c>
@@ -2768,7 +5024,7 @@
         <v>5E</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B213" s="2">
         <v>92</v>
       </c>
@@ -2777,7 +5033,7 @@
         <v>5C</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B214" s="2">
         <v>90</v>
       </c>
@@ -2785,8 +5041,28 @@
         <f t="shared" si="3"/>
         <v>5A</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D214" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+    </row>
+    <row r="215" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B215" s="2">
         <v>88</v>
       </c>
@@ -2794,8 +5070,28 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D215" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+    </row>
+    <row r="216" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B216" s="2">
         <v>86</v>
       </c>
@@ -2803,8 +5099,28 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D216" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+    </row>
+    <row r="217" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B217" s="2">
         <v>84</v>
       </c>
@@ -2812,8 +5128,18 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="L217" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+    </row>
+    <row r="218" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B218" s="2">
         <v>82</v>
       </c>
@@ -2821,8 +5147,26 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D218" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+    </row>
+    <row r="219" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B219" s="2">
         <v>80</v>
       </c>
@@ -2830,8 +5174,28 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D219" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+    </row>
+    <row r="220" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B220" s="2">
         <v>78</v>
       </c>
@@ -2840,7 +5204,7 @@
         <v>4E</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B221" s="2">
         <v>76</v>
       </c>
@@ -2849,7 +5213,7 @@
         <v>4C</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B222" s="2">
         <v>74</v>
       </c>
@@ -2858,7 +5222,7 @@
         <v>4A</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B223" s="2">
         <v>72</v>
       </c>
@@ -2867,7 +5231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B224" s="2">
         <v>70</v>
       </c>
@@ -3560,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B257" s="2">
         <v>4</v>
       </c>
@@ -3568,8 +5932,28 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D257" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+    </row>
+    <row r="258" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B258" s="2">
         <v>2</v>
       </c>
@@ -3577,8 +5961,28 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D258" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+    </row>
+    <row r="259" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B259" s="2">
         <v>0</v>
       </c>
@@ -3586,40 +5990,155 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D259" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D73:S73"/>
-    <mergeCell ref="D74:S74"/>
-    <mergeCell ref="D72:S72"/>
-    <mergeCell ref="D108:S108"/>
-    <mergeCell ref="D81:S81"/>
-    <mergeCell ref="D80:S80"/>
-    <mergeCell ref="D75:S75"/>
-    <mergeCell ref="D76:S76"/>
-    <mergeCell ref="D77:S77"/>
-    <mergeCell ref="D78:S78"/>
-    <mergeCell ref="D79:S79"/>
-    <mergeCell ref="D83:S83"/>
-    <mergeCell ref="D82:S82"/>
-    <mergeCell ref="D234:K234"/>
-    <mergeCell ref="L234:S234"/>
-    <mergeCell ref="D233:K233"/>
-    <mergeCell ref="L233:S233"/>
-    <mergeCell ref="D232:K232"/>
-    <mergeCell ref="L232:S232"/>
-    <mergeCell ref="D237:K237"/>
-    <mergeCell ref="L237:S237"/>
-    <mergeCell ref="D236:K236"/>
-    <mergeCell ref="L236:S236"/>
-    <mergeCell ref="D235:K235"/>
-    <mergeCell ref="L235:S235"/>
-    <mergeCell ref="D240:K240"/>
-    <mergeCell ref="L240:S240"/>
-    <mergeCell ref="D239:K239"/>
-    <mergeCell ref="L239:S239"/>
-    <mergeCell ref="D238:K238"/>
-    <mergeCell ref="L238:S238"/>
+  <mergeCells count="174">
+    <mergeCell ref="L217:S217"/>
+    <mergeCell ref="D111:S111"/>
+    <mergeCell ref="D110:S110"/>
+    <mergeCell ref="D109:S109"/>
+    <mergeCell ref="L215:S215"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="L214:S214"/>
+    <mergeCell ref="D119:S119"/>
+    <mergeCell ref="D118:S118"/>
+    <mergeCell ref="D117:S117"/>
+    <mergeCell ref="D216:K216"/>
+    <mergeCell ref="L216:S216"/>
+    <mergeCell ref="D215:K215"/>
+    <mergeCell ref="D100:S100"/>
+    <mergeCell ref="D101:S101"/>
+    <mergeCell ref="D102:S102"/>
+    <mergeCell ref="D103:S103"/>
+    <mergeCell ref="D203:K203"/>
+    <mergeCell ref="L203:S203"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="L202:S202"/>
+    <mergeCell ref="D201:K201"/>
+    <mergeCell ref="L201:S201"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="L200:S200"/>
+    <mergeCell ref="D199:K199"/>
+    <mergeCell ref="L199:S199"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="L198:S198"/>
+    <mergeCell ref="D115:S115"/>
+    <mergeCell ref="D107:S107"/>
+    <mergeCell ref="D106:S106"/>
+    <mergeCell ref="D105:S105"/>
+    <mergeCell ref="D104:S104"/>
+    <mergeCell ref="L190:S190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="L191:S191"/>
+    <mergeCell ref="D259:K259"/>
+    <mergeCell ref="L259:S259"/>
+    <mergeCell ref="D258:K258"/>
+    <mergeCell ref="L258:S258"/>
+    <mergeCell ref="D257:K257"/>
+    <mergeCell ref="L257:S257"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="L197:S197"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="L196:S196"/>
+    <mergeCell ref="D219:K219"/>
+    <mergeCell ref="L219:S219"/>
+    <mergeCell ref="D218:K218"/>
+    <mergeCell ref="D95:S95"/>
+    <mergeCell ref="D96:S96"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="L195:S195"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="L194:S194"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="L193:S193"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="L192:S192"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="L188:S188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="L189:S189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D10:S10"/>
+    <mergeCell ref="D9:S9"/>
+    <mergeCell ref="D8:S8"/>
+    <mergeCell ref="D20:S20"/>
+    <mergeCell ref="D21:S21"/>
+    <mergeCell ref="D11:S11"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D17:S17"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D14:S14"/>
+    <mergeCell ref="D13:S13"/>
+    <mergeCell ref="D12:S12"/>
+    <mergeCell ref="D30:S30"/>
+    <mergeCell ref="D114:S114"/>
+    <mergeCell ref="D113:S113"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D22:S22"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="D24:S24"/>
+    <mergeCell ref="D25:S25"/>
+    <mergeCell ref="D26:S26"/>
+    <mergeCell ref="D27:S27"/>
+    <mergeCell ref="D28:S28"/>
+    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="D51:S51"/>
+    <mergeCell ref="D50:S50"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="D53:S53"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D35:S35"/>
+    <mergeCell ref="D34:S34"/>
+    <mergeCell ref="D31:S31"/>
+    <mergeCell ref="D48:S48"/>
+    <mergeCell ref="D47:S47"/>
+    <mergeCell ref="D58:S58"/>
+    <mergeCell ref="D57:S57"/>
+    <mergeCell ref="D56:S56"/>
+    <mergeCell ref="D55:S55"/>
+    <mergeCell ref="D54:S54"/>
+    <mergeCell ref="D63:S63"/>
+    <mergeCell ref="D62:S62"/>
+    <mergeCell ref="D61:S61"/>
+    <mergeCell ref="D60:S60"/>
+    <mergeCell ref="D59:S59"/>
+    <mergeCell ref="D116:S116"/>
+    <mergeCell ref="D67:S67"/>
+    <mergeCell ref="D66:S66"/>
+    <mergeCell ref="D64:S64"/>
+    <mergeCell ref="D65:S65"/>
+    <mergeCell ref="D99:S99"/>
+    <mergeCell ref="D98:S98"/>
+    <mergeCell ref="D97:S97"/>
+    <mergeCell ref="D84:S84"/>
+    <mergeCell ref="D85:S85"/>
+    <mergeCell ref="D86:S86"/>
+    <mergeCell ref="D87:S87"/>
+    <mergeCell ref="D88:S88"/>
+    <mergeCell ref="D89:S89"/>
+    <mergeCell ref="D90:S90"/>
+    <mergeCell ref="D91:S91"/>
     <mergeCell ref="D242:K242"/>
     <mergeCell ref="D241:K241"/>
     <mergeCell ref="L247:S247"/>
@@ -3634,6 +6153,40 @@
     <mergeCell ref="D245:K245"/>
     <mergeCell ref="D246:K246"/>
     <mergeCell ref="D247:K247"/>
+    <mergeCell ref="D240:K240"/>
+    <mergeCell ref="L240:S240"/>
+    <mergeCell ref="D239:K239"/>
+    <mergeCell ref="L239:S239"/>
+    <mergeCell ref="D238:K238"/>
+    <mergeCell ref="L238:S238"/>
+    <mergeCell ref="D237:K237"/>
+    <mergeCell ref="L237:S237"/>
+    <mergeCell ref="D236:K236"/>
+    <mergeCell ref="L236:S236"/>
+    <mergeCell ref="D235:K235"/>
+    <mergeCell ref="L235:S235"/>
+    <mergeCell ref="D234:K234"/>
+    <mergeCell ref="L234:S234"/>
+    <mergeCell ref="D233:K233"/>
+    <mergeCell ref="L233:S233"/>
+    <mergeCell ref="D232:K232"/>
+    <mergeCell ref="L232:S232"/>
+    <mergeCell ref="D73:S73"/>
+    <mergeCell ref="D74:S74"/>
+    <mergeCell ref="D72:S72"/>
+    <mergeCell ref="D108:S108"/>
+    <mergeCell ref="D81:S81"/>
+    <mergeCell ref="D80:S80"/>
+    <mergeCell ref="D75:S75"/>
+    <mergeCell ref="D76:S76"/>
+    <mergeCell ref="D77:S77"/>
+    <mergeCell ref="D78:S78"/>
+    <mergeCell ref="D79:S79"/>
+    <mergeCell ref="D83:S83"/>
+    <mergeCell ref="D82:S82"/>
+    <mergeCell ref="D92:S92"/>
+    <mergeCell ref="D93:S93"/>
+    <mergeCell ref="D94:S94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/外设地址分配表.xlsx
+++ b/doc/外设地址分配表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="210">
   <si>
     <t>10进制地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,14 @@
   </si>
   <si>
     <t>黑字是430内核已存在的寄存器。蓝字是文档存在的寄存器。但是内核并不支持该寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoder_buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoder_buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2086,15 +2094,17 @@
         <f t="shared" si="0"/>
         <v>1CE</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2111,15 +2121,9 @@
         <f t="shared" si="0"/>
         <v>1CC</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -6420,6 +6424,12 @@
     </row>
   </sheetData>
   <mergeCells count="153">
+    <mergeCell ref="E107:T107"/>
+    <mergeCell ref="E106:T106"/>
+    <mergeCell ref="E105:T105"/>
+    <mergeCell ref="M191:T191"/>
+    <mergeCell ref="E192:L192"/>
+    <mergeCell ref="M192:T192"/>
     <mergeCell ref="M218:T218"/>
     <mergeCell ref="E112:T112"/>
     <mergeCell ref="E111:T111"/>
@@ -6433,15 +6443,11 @@
     <mergeCell ref="E217:L217"/>
     <mergeCell ref="M217:T217"/>
     <mergeCell ref="E216:L216"/>
-    <mergeCell ref="E101:T101"/>
-    <mergeCell ref="E102:T102"/>
-    <mergeCell ref="E103:T103"/>
-    <mergeCell ref="E104:T104"/>
-    <mergeCell ref="E204:L204"/>
-    <mergeCell ref="M204:T204"/>
-    <mergeCell ref="E203:L203"/>
-    <mergeCell ref="M203:T203"/>
-    <mergeCell ref="E202:L202"/>
+    <mergeCell ref="E117:T117"/>
+    <mergeCell ref="E196:L196"/>
+    <mergeCell ref="M196:T196"/>
+    <mergeCell ref="E195:L195"/>
+    <mergeCell ref="M195:T195"/>
     <mergeCell ref="M202:T202"/>
     <mergeCell ref="E201:L201"/>
     <mergeCell ref="M201:T201"/>
@@ -6451,13 +6457,20 @@
     <mergeCell ref="M199:T199"/>
     <mergeCell ref="E116:T116"/>
     <mergeCell ref="E108:T108"/>
-    <mergeCell ref="E107:T107"/>
-    <mergeCell ref="E106:T106"/>
-    <mergeCell ref="E105:T105"/>
-    <mergeCell ref="M191:T191"/>
-    <mergeCell ref="E192:L192"/>
-    <mergeCell ref="M192:T192"/>
-    <mergeCell ref="E117:T117"/>
+    <mergeCell ref="E194:L194"/>
+    <mergeCell ref="M194:T194"/>
+    <mergeCell ref="E193:L193"/>
+    <mergeCell ref="M193:T193"/>
+    <mergeCell ref="E189:L189"/>
+    <mergeCell ref="M189:T189"/>
+    <mergeCell ref="E59:T59"/>
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E56:T56"/>
+    <mergeCell ref="E55:T55"/>
+    <mergeCell ref="E64:T64"/>
+    <mergeCell ref="E63:T63"/>
+    <mergeCell ref="E62:T62"/>
     <mergeCell ref="E260:L260"/>
     <mergeCell ref="M260:T260"/>
     <mergeCell ref="E259:L259"/>
@@ -6474,29 +6487,7 @@
     <mergeCell ref="E243:L243"/>
     <mergeCell ref="E242:L242"/>
     <mergeCell ref="M248:T248"/>
-    <mergeCell ref="M247:T247"/>
-    <mergeCell ref="M246:T246"/>
-    <mergeCell ref="M245:T245"/>
-    <mergeCell ref="M244:T244"/>
-    <mergeCell ref="M243:T243"/>
-    <mergeCell ref="M242:T242"/>
-    <mergeCell ref="E244:L244"/>
-    <mergeCell ref="E196:L196"/>
-    <mergeCell ref="M196:T196"/>
-    <mergeCell ref="E195:L195"/>
-    <mergeCell ref="M195:T195"/>
-    <mergeCell ref="E194:L194"/>
-    <mergeCell ref="M194:T194"/>
-    <mergeCell ref="E193:L193"/>
-    <mergeCell ref="M193:T193"/>
-    <mergeCell ref="E189:L189"/>
-    <mergeCell ref="M189:T189"/>
-    <mergeCell ref="E190:L190"/>
-    <mergeCell ref="M190:T190"/>
-    <mergeCell ref="E191:L191"/>
     <mergeCell ref="E31:T31"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E30:T30"/>
     <mergeCell ref="E52:T52"/>
     <mergeCell ref="E51:T51"/>
     <mergeCell ref="E50:T50"/>
@@ -6507,14 +6498,6 @@
     <mergeCell ref="E32:T32"/>
     <mergeCell ref="E49:T49"/>
     <mergeCell ref="E48:T48"/>
-    <mergeCell ref="E59:T59"/>
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E56:T56"/>
-    <mergeCell ref="E55:T55"/>
-    <mergeCell ref="E64:T64"/>
-    <mergeCell ref="E63:T63"/>
-    <mergeCell ref="E62:T62"/>
     <mergeCell ref="E61:T61"/>
     <mergeCell ref="E60:T60"/>
     <mergeCell ref="E99:T99"/>
@@ -6529,7 +6512,6 @@
     <mergeCell ref="E92:T92"/>
     <mergeCell ref="E96:T96"/>
     <mergeCell ref="E97:T97"/>
-    <mergeCell ref="E246:L246"/>
     <mergeCell ref="E247:L247"/>
     <mergeCell ref="E248:L248"/>
     <mergeCell ref="E241:L241"/>
@@ -6539,6 +6521,16 @@
     <mergeCell ref="E239:L239"/>
     <mergeCell ref="M239:T239"/>
     <mergeCell ref="E245:L245"/>
+    <mergeCell ref="M247:T247"/>
+    <mergeCell ref="M246:T246"/>
+    <mergeCell ref="M245:T245"/>
+    <mergeCell ref="M244:T244"/>
+    <mergeCell ref="M243:T243"/>
+    <mergeCell ref="M242:T242"/>
+    <mergeCell ref="E244:L244"/>
+    <mergeCell ref="E246:L246"/>
+    <mergeCell ref="E66:T66"/>
+    <mergeCell ref="E100:T100"/>
     <mergeCell ref="E238:L238"/>
     <mergeCell ref="M238:T238"/>
     <mergeCell ref="E237:L237"/>
@@ -6549,6 +6541,20 @@
     <mergeCell ref="M235:T235"/>
     <mergeCell ref="E234:L234"/>
     <mergeCell ref="M234:T234"/>
+    <mergeCell ref="E190:L190"/>
+    <mergeCell ref="M190:T190"/>
+    <mergeCell ref="E191:L191"/>
+    <mergeCell ref="E101:T101"/>
+    <mergeCell ref="E102:T102"/>
+    <mergeCell ref="E103:T103"/>
+    <mergeCell ref="E104:T104"/>
+    <mergeCell ref="E204:L204"/>
+    <mergeCell ref="M204:T204"/>
+    <mergeCell ref="E203:L203"/>
+    <mergeCell ref="M203:T203"/>
+    <mergeCell ref="E202:L202"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="M29:T29"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="E233:L233"/>
     <mergeCell ref="M233:T233"/>
@@ -6571,8 +6577,6 @@
     <mergeCell ref="E68:T68"/>
     <mergeCell ref="E67:T67"/>
     <mergeCell ref="E65:T65"/>
-    <mergeCell ref="E66:T66"/>
-    <mergeCell ref="E100:T100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/外设地址分配表.xlsx
+++ b/doc/外设地址分配表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="211">
   <si>
     <t>10进制地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,11 +833,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>encoder_buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decoder_buffer</t>
+    <t>code_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoder_buffer_din</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoder_buffer_dout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,13 +910,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1221,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:T31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,27 +1251,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -2094,24 +2098,6 @@
         <f t="shared" si="0"/>
         <v>1CE</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
@@ -2121,16 +2107,6 @@
         <f t="shared" si="0"/>
         <v>1CC</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
@@ -2140,24 +2116,24 @@
         <f t="shared" si="0"/>
         <v>1CA</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
@@ -2167,24 +2143,24 @@
         <f t="shared" si="0"/>
         <v>1C8</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
@@ -2212,24 +2188,24 @@
         <f t="shared" si="0"/>
         <v>1C2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
@@ -2239,24 +2215,24 @@
         <f t="shared" si="0"/>
         <v>1C0</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
@@ -2338,6 +2314,16 @@
         <f t="shared" si="0"/>
         <v>1AE</v>
       </c>
+      <c r="M45" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
@@ -2347,6 +2333,24 @@
         <f t="shared" si="0"/>
         <v>1AC</v>
       </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
@@ -2356,6 +2360,16 @@
         <f t="shared" si="0"/>
         <v>1AA</v>
       </c>
+      <c r="M47" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
@@ -2365,24 +2379,24 @@
         <f t="shared" si="0"/>
         <v>1A8</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
@@ -2392,24 +2406,24 @@
         <f t="shared" si="0"/>
         <v>1A6</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
@@ -2419,24 +2433,24 @@
         <f t="shared" si="0"/>
         <v>1A4</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
@@ -2446,24 +2460,24 @@
         <f t="shared" si="0"/>
         <v>1A2</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
@@ -2473,24 +2487,24 @@
         <f t="shared" si="0"/>
         <v>1A0</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
@@ -2500,24 +2514,24 @@
         <f t="shared" si="0"/>
         <v>19E</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
@@ -2527,24 +2541,24 @@
         <f t="shared" si="0"/>
         <v>19C</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
@@ -2554,24 +2568,24 @@
         <f t="shared" si="0"/>
         <v>19A</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
@@ -2581,24 +2595,24 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
@@ -2608,24 +2622,24 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
@@ -2635,24 +2649,24 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
@@ -2662,24 +2676,24 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
@@ -2689,24 +2703,24 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
@@ -2716,24 +2730,24 @@
         <f t="shared" si="0"/>
         <v>18E</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
@@ -2743,24 +2757,24 @@
         <f t="shared" si="0"/>
         <v>18C</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
@@ -2770,24 +2784,24 @@
         <f t="shared" si="0"/>
         <v>18A</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
@@ -2797,24 +2811,24 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
@@ -2824,24 +2838,24 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
@@ -2851,24 +2865,24 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
@@ -2878,24 +2892,24 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
@@ -2905,24 +2919,24 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
@@ -2968,24 +2982,24 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
@@ -2995,24 +3009,24 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
@@ -3022,24 +3036,24 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
@@ -3049,24 +3063,24 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
@@ -3076,22 +3090,22 @@
         <f t="shared" si="1"/>
         <v>16E</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
@@ -3101,22 +3115,22 @@
         <f t="shared" si="1"/>
         <v>16C</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
@@ -3126,22 +3140,22 @@
         <f t="shared" si="1"/>
         <v>16A</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
@@ -3151,22 +3165,22 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
@@ -3176,24 +3190,24 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
@@ -3203,24 +3217,24 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
@@ -3230,24 +3244,24 @@
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
@@ -3257,24 +3271,24 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
@@ -3284,24 +3298,24 @@
         <f t="shared" si="1"/>
         <v>15E</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
@@ -3311,24 +3325,24 @@
         <f t="shared" si="1"/>
         <v>15C</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
@@ -3338,24 +3352,24 @@
         <f t="shared" si="1"/>
         <v>15A</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
@@ -3365,24 +3379,24 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
@@ -3392,24 +3406,24 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
@@ -3419,24 +3433,24 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
@@ -3446,24 +3460,24 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
@@ -3473,24 +3487,24 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
@@ -3500,24 +3514,24 @@
         <f t="shared" si="1"/>
         <v>14E</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
@@ -3527,24 +3541,24 @@
         <f t="shared" si="1"/>
         <v>14C</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B95" s="4">
@@ -3554,24 +3568,24 @@
         <f t="shared" si="1"/>
         <v>14A</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B96" s="4">
@@ -3581,24 +3595,24 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B97" s="4">
@@ -3608,24 +3622,24 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B98" s="4">
@@ -3635,24 +3649,24 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B99" s="4">
@@ -3662,24 +3676,24 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B100" s="4">
@@ -3689,24 +3703,24 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B101" s="4">
@@ -3716,24 +3730,24 @@
         <f t="shared" si="1"/>
         <v>13E</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B102" s="4">
@@ -3743,24 +3757,24 @@
         <f t="shared" si="1"/>
         <v>13C</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B103" s="4">
@@ -3770,24 +3784,24 @@
         <f t="shared" si="1"/>
         <v>13A</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B104" s="4">
@@ -3797,24 +3811,24 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B105" s="4">
@@ -3824,24 +3838,24 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B106" s="4">
@@ -3851,24 +3865,24 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B107" s="4">
@@ -3878,24 +3892,24 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B108" s="4">
@@ -3905,24 +3919,24 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B109" s="4">
@@ -3932,24 +3946,24 @@
         <f t="shared" si="1"/>
         <v>12E</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B110" s="4">
@@ -3959,24 +3973,24 @@
         <f t="shared" si="1"/>
         <v>12C</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B111" s="4">
@@ -3986,24 +4000,24 @@
         <f t="shared" si="1"/>
         <v>12A</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B112" s="4">
@@ -4013,24 +4027,24 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B113" s="4">
@@ -4151,24 +4165,24 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B117" s="4">
@@ -4178,24 +4192,24 @@
         <f t="shared" si="1"/>
         <v>11E</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B118" s="4">
@@ -4205,24 +4219,24 @@
         <f t="shared" si="1"/>
         <v>11C</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B119" s="4">
@@ -4232,24 +4246,24 @@
         <f t="shared" si="1"/>
         <v>11A</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B120" s="4">
@@ -4259,24 +4273,24 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B121" s="4">
@@ -4898,26 +4912,26 @@
         <f t="shared" si="2"/>
         <v>8E</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6" t="s">
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B190" s="4">
@@ -4927,26 +4941,26 @@
         <f t="shared" si="2"/>
         <v>8C</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-      <c r="M190" s="6" t="s">
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="6"/>
-      <c r="S190" s="6"/>
-      <c r="T190" s="6"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B191" s="4">
@@ -4956,26 +4970,26 @@
         <f t="shared" si="2"/>
         <v>8A</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6" t="s">
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="6"/>
-      <c r="T191" s="6"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B192" s="4">
@@ -4985,26 +4999,26 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-      <c r="L192" s="6"/>
-      <c r="M192" s="6" t="s">
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N192" s="6"/>
-      <c r="O192" s="6"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-      <c r="R192" s="6"/>
-      <c r="S192" s="6"/>
-      <c r="T192" s="6"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B193" s="4">
@@ -5014,26 +5028,26 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-      <c r="M193" s="6" t="s">
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="N193" s="6"/>
-      <c r="O193" s="6"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-      <c r="R193" s="6"/>
-      <c r="S193" s="6"/>
-      <c r="T193" s="6"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B194" s="4">
@@ -5043,26 +5057,26 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="M194" s="6" t="s">
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N194" s="6"/>
-      <c r="O194" s="6"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-      <c r="R194" s="6"/>
-      <c r="S194" s="6"/>
-      <c r="T194" s="6"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="4">
@@ -5072,26 +5086,26 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-      <c r="M195" s="6" t="s">
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N195" s="6"/>
-      <c r="O195" s="6"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="6"/>
-      <c r="R195" s="6"/>
-      <c r="S195" s="6"/>
-      <c r="T195" s="6"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B196" s="4">
@@ -5101,26 +5115,26 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-      <c r="M196" s="6" t="s">
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
-      <c r="R196" s="6"/>
-      <c r="S196" s="6"/>
-      <c r="T196" s="6"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B197" s="4">
@@ -5130,26 +5144,26 @@
         <f t="shared" ref="C197:C260" si="3">DEC2HEX(B197)</f>
         <v>7E</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-      <c r="L197" s="6"/>
-      <c r="M197" s="6" t="s">
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="6"/>
-      <c r="R197" s="6"/>
-      <c r="S197" s="6"/>
-      <c r="T197" s="6"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B198" s="4">
@@ -5159,26 +5173,26 @@
         <f t="shared" si="3"/>
         <v>7C</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6" t="s">
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="6"/>
-      <c r="T198" s="6"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
     </row>
     <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="4">
@@ -5188,26 +5202,26 @@
         <f t="shared" si="3"/>
         <v>7A</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
-      <c r="L199" s="6"/>
-      <c r="M199" s="6" t="s">
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
-      <c r="R199" s="6"/>
-      <c r="S199" s="6"/>
-      <c r="T199" s="6"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B200" s="4">
@@ -5217,26 +5231,26 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6" t="s">
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="6"/>
-      <c r="R200" s="6"/>
-      <c r="S200" s="6"/>
-      <c r="T200" s="6"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B201" s="4">
@@ -5246,26 +5260,26 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6" t="s">
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
-      <c r="R201" s="6"/>
-      <c r="S201" s="6"/>
-      <c r="T201" s="6"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B202" s="4">
@@ -5275,26 +5289,26 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
-      <c r="L202" s="6"/>
-      <c r="M202" s="6" t="s">
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
-      <c r="P202" s="6"/>
-      <c r="Q202" s="6"/>
-      <c r="R202" s="6"/>
-      <c r="S202" s="6"/>
-      <c r="T202" s="6"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B203" s="4">
@@ -5304,26 +5318,26 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-      <c r="L203" s="6"/>
-      <c r="M203" s="6" t="s">
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="6"/>
-      <c r="T203" s="6"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B204" s="4">
@@ -5333,26 +5347,26 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-      <c r="L204" s="6"/>
-      <c r="M204" s="6" t="s">
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N204" s="6"/>
-      <c r="O204" s="6"/>
-      <c r="P204" s="6"/>
-      <c r="Q204" s="6"/>
-      <c r="R204" s="6"/>
-      <c r="S204" s="6"/>
-      <c r="T204" s="6"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
     </row>
     <row r="205" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B205" s="4">
@@ -5452,26 +5466,26 @@
         <f t="shared" si="3"/>
         <v>5A</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="E215" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="7"/>
-      <c r="L215" s="7"/>
-      <c r="M215" s="7" t="s">
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N215" s="7"/>
-      <c r="O215" s="7"/>
-      <c r="P215" s="7"/>
-      <c r="Q215" s="7"/>
-      <c r="R215" s="7"/>
-      <c r="S215" s="7"/>
-      <c r="T215" s="7"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
     </row>
     <row r="216" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B216" s="4">
@@ -5481,26 +5495,26 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
-      <c r="J216" s="6"/>
-      <c r="K216" s="6"/>
-      <c r="L216" s="6"/>
-      <c r="M216" s="7" t="s">
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="N216" s="7"/>
-      <c r="O216" s="7"/>
-      <c r="P216" s="7"/>
-      <c r="Q216" s="7"/>
-      <c r="R216" s="7"/>
-      <c r="S216" s="7"/>
-      <c r="T216" s="7"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B217" s="4">
@@ -5510,26 +5524,26 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="6"/>
-      <c r="K217" s="6"/>
-      <c r="L217" s="6"/>
-      <c r="M217" s="6" t="s">
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N217" s="6"/>
-      <c r="O217" s="6"/>
-      <c r="P217" s="6"/>
-      <c r="Q217" s="6"/>
-      <c r="R217" s="6"/>
-      <c r="S217" s="6"/>
-      <c r="T217" s="6"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B218" s="4">
@@ -5539,16 +5553,16 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="M218" s="6" t="s">
+      <c r="M218" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N218" s="7"/>
-      <c r="O218" s="7"/>
-      <c r="P218" s="7"/>
-      <c r="Q218" s="7"/>
-      <c r="R218" s="7"/>
-      <c r="S218" s="7"/>
-      <c r="T218" s="7"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
     </row>
     <row r="219" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B219" s="4">
@@ -5558,16 +5572,16 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F219" s="6"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-      <c r="I219" s="6"/>
-      <c r="J219" s="6"/>
-      <c r="K219" s="6"/>
-      <c r="L219" s="6"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -5585,26 +5599,26 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-      <c r="I220" s="6"/>
-      <c r="J220" s="6"/>
-      <c r="K220" s="6"/>
-      <c r="L220" s="6"/>
-      <c r="M220" s="6" t="s">
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N220" s="6"/>
-      <c r="O220" s="6"/>
-      <c r="P220" s="6"/>
-      <c r="Q220" s="6"/>
-      <c r="R220" s="6"/>
-      <c r="S220" s="6"/>
-      <c r="T220" s="6"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
     </row>
     <row r="221" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B221" s="4">
@@ -5802,26 +5816,26 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="5" t="s">
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N233" s="5"/>
-      <c r="O233" s="5"/>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="7"/>
+      <c r="R233" s="7"/>
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
     </row>
     <row r="234" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B234" s="4">
@@ -5831,26 +5845,26 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E234" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="5" t="s">
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N234" s="5"/>
-      <c r="O234" s="5"/>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
+      <c r="N234" s="7"/>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="7"/>
+      <c r="R234" s="7"/>
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
     </row>
     <row r="235" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B235" s="4">
@@ -5860,26 +5874,26 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="E235" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="5" t="s">
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
+      <c r="N235" s="7"/>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
     </row>
     <row r="236" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B236" s="4">
@@ -5889,26 +5903,26 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E236" s="5" t="s">
+      <c r="E236" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="5" t="s">
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N236" s="5"/>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
+      <c r="N236" s="7"/>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="7"/>
+      <c r="R236" s="7"/>
+      <c r="S236" s="7"/>
+      <c r="T236" s="7"/>
     </row>
     <row r="237" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B237" s="4">
@@ -5918,24 +5932,24 @@
         <f t="shared" si="3"/>
         <v>2E</v>
       </c>
-      <c r="E237" s="5" t="s">
+      <c r="E237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="7"/>
+      <c r="O237" s="7"/>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="7"/>
+      <c r="R237" s="7"/>
+      <c r="S237" s="7"/>
+      <c r="T237" s="7"/>
     </row>
     <row r="238" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B238" s="4">
@@ -5945,26 +5959,26 @@
         <f t="shared" si="3"/>
         <v>2C</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
-      <c r="M238" s="5" t="s">
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="7"/>
+      <c r="L238" s="7"/>
+      <c r="M238" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="5"/>
-      <c r="O238" s="5"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
+      <c r="N238" s="7"/>
+      <c r="O238" s="7"/>
+      <c r="P238" s="7"/>
+      <c r="Q238" s="7"/>
+      <c r="R238" s="7"/>
+      <c r="S238" s="7"/>
+      <c r="T238" s="7"/>
     </row>
     <row r="239" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B239" s="4">
@@ -5974,26 +5988,26 @@
         <f t="shared" si="3"/>
         <v>2A</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E239" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
-      <c r="M239" s="5" t="s">
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="7"/>
+      <c r="M239" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N239" s="5"/>
-      <c r="O239" s="5"/>
-      <c r="P239" s="5"/>
-      <c r="Q239" s="5"/>
-      <c r="R239" s="5"/>
-      <c r="S239" s="5"/>
-      <c r="T239" s="5"/>
+      <c r="N239" s="7"/>
+      <c r="O239" s="7"/>
+      <c r="P239" s="7"/>
+      <c r="Q239" s="7"/>
+      <c r="R239" s="7"/>
+      <c r="S239" s="7"/>
+      <c r="T239" s="7"/>
     </row>
     <row r="240" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B240" s="4">
@@ -6003,26 +6017,26 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
-      <c r="M240" s="5" t="s">
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="7"/>
+      <c r="L240" s="7"/>
+      <c r="M240" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N240" s="5"/>
-      <c r="O240" s="5"/>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
+      <c r="N240" s="7"/>
+      <c r="O240" s="7"/>
+      <c r="P240" s="7"/>
+      <c r="Q240" s="7"/>
+      <c r="R240" s="7"/>
+      <c r="S240" s="7"/>
+      <c r="T240" s="7"/>
     </row>
     <row r="241" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B241" s="4">
@@ -6032,24 +6046,24 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
-      <c r="P241" s="5"/>
-      <c r="Q241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="7"/>
+      <c r="L241" s="7"/>
+      <c r="M241" s="7"/>
+      <c r="N241" s="7"/>
+      <c r="O241" s="7"/>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="7"/>
+      <c r="R241" s="7"/>
+      <c r="S241" s="7"/>
+      <c r="T241" s="7"/>
     </row>
     <row r="242" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B242" s="4">
@@ -6059,26 +6073,26 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E242" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="5"/>
-      <c r="K242" s="5"/>
-      <c r="L242" s="5"/>
-      <c r="M242" s="5" t="s">
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N242" s="5"/>
-      <c r="O242" s="5"/>
-      <c r="P242" s="5"/>
-      <c r="Q242" s="5"/>
-      <c r="R242" s="5"/>
-      <c r="S242" s="5"/>
-      <c r="T242" s="5"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="7"/>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="7"/>
+      <c r="R242" s="7"/>
+      <c r="S242" s="7"/>
+      <c r="T242" s="7"/>
     </row>
     <row r="243" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B243" s="4">
@@ -6088,26 +6102,26 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
-      <c r="L243" s="5"/>
-      <c r="M243" s="5" t="s">
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N243" s="5"/>
-      <c r="O243" s="5"/>
-      <c r="P243" s="5"/>
-      <c r="Q243" s="5"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="7"/>
+      <c r="P243" s="7"/>
+      <c r="Q243" s="7"/>
+      <c r="R243" s="7"/>
+      <c r="S243" s="7"/>
+      <c r="T243" s="7"/>
     </row>
     <row r="244" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B244" s="4">
@@ -6117,26 +6131,26 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E244" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
-      <c r="K244" s="5"/>
-      <c r="L244" s="5"/>
-      <c r="M244" s="5" t="s">
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="7"/>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
+      <c r="M244" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N244" s="5"/>
-      <c r="O244" s="5"/>
-      <c r="P244" s="5"/>
-      <c r="Q244" s="5"/>
-      <c r="R244" s="5"/>
-      <c r="S244" s="5"/>
-      <c r="T244" s="5"/>
+      <c r="N244" s="7"/>
+      <c r="O244" s="7"/>
+      <c r="P244" s="7"/>
+      <c r="Q244" s="7"/>
+      <c r="R244" s="7"/>
+      <c r="S244" s="7"/>
+      <c r="T244" s="7"/>
     </row>
     <row r="245" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B245" s="4">
@@ -6146,26 +6160,26 @@
         <f t="shared" si="3"/>
         <v>1E</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
-      <c r="M245" s="5" t="s">
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
+      <c r="J245" s="7"/>
+      <c r="K245" s="7"/>
+      <c r="L245" s="7"/>
+      <c r="M245" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N245" s="5"/>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
+      <c r="N245" s="7"/>
+      <c r="O245" s="7"/>
+      <c r="P245" s="7"/>
+      <c r="Q245" s="7"/>
+      <c r="R245" s="7"/>
+      <c r="S245" s="7"/>
+      <c r="T245" s="7"/>
     </row>
     <row r="246" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B246" s="4">
@@ -6175,26 +6189,26 @@
         <f t="shared" si="3"/>
         <v>1C</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
-      <c r="L246" s="5"/>
-      <c r="M246" s="5" t="s">
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="7"/>
+      <c r="J246" s="7"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N246" s="5"/>
-      <c r="O246" s="5"/>
-      <c r="P246" s="5"/>
-      <c r="Q246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="7"/>
+      <c r="P246" s="7"/>
+      <c r="Q246" s="7"/>
+      <c r="R246" s="7"/>
+      <c r="S246" s="7"/>
+      <c r="T246" s="7"/>
     </row>
     <row r="247" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B247" s="4">
@@ -6204,26 +6218,26 @@
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
-      <c r="L247" s="5"/>
-      <c r="M247" s="5" t="s">
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="7"/>
+      <c r="J247" s="7"/>
+      <c r="K247" s="7"/>
+      <c r="L247" s="7"/>
+      <c r="M247" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N247" s="5"/>
-      <c r="O247" s="5"/>
-      <c r="P247" s="5"/>
-      <c r="Q247" s="5"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="5"/>
-      <c r="T247" s="5"/>
+      <c r="N247" s="7"/>
+      <c r="O247" s="7"/>
+      <c r="P247" s="7"/>
+      <c r="Q247" s="7"/>
+      <c r="R247" s="7"/>
+      <c r="S247" s="7"/>
+      <c r="T247" s="7"/>
     </row>
     <row r="248" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B248" s="4">
@@ -6233,26 +6247,26 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E248" s="5" t="s">
+      <c r="E248" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="5"/>
-      <c r="K248" s="5"/>
-      <c r="L248" s="5"/>
-      <c r="M248" s="5" t="s">
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="7"/>
+      <c r="J248" s="7"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
+      <c r="M248" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N248" s="5"/>
-      <c r="O248" s="5"/>
-      <c r="P248" s="5"/>
-      <c r="Q248" s="5"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
+      <c r="N248" s="7"/>
+      <c r="O248" s="7"/>
+      <c r="P248" s="7"/>
+      <c r="Q248" s="7"/>
+      <c r="R248" s="7"/>
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
     </row>
     <row r="249" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B249" s="4">
@@ -6343,26 +6357,26 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="E258" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-      <c r="I258" s="6"/>
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-      <c r="M258" s="6" t="s">
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N258" s="6"/>
-      <c r="O258" s="6"/>
-      <c r="P258" s="6"/>
-      <c r="Q258" s="6"/>
-      <c r="R258" s="6"/>
-      <c r="S258" s="6"/>
-      <c r="T258" s="6"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
     </row>
     <row r="259" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B259" s="4">
@@ -6372,26 +6386,26 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="E259" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
-      <c r="I259" s="6"/>
-      <c r="J259" s="6"/>
-      <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
-      <c r="M259" s="6" t="s">
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N259" s="6"/>
-      <c r="O259" s="6"/>
-      <c r="P259" s="6"/>
-      <c r="Q259" s="6"/>
-      <c r="R259" s="6"/>
-      <c r="S259" s="6"/>
-      <c r="T259" s="6"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
     </row>
     <row r="260" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B260" s="4">
@@ -6401,29 +6415,159 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-      <c r="K260" s="6"/>
-      <c r="L260" s="6"/>
-      <c r="M260" s="6" t="s">
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N260" s="6"/>
-      <c r="O260" s="6"/>
-      <c r="P260" s="6"/>
-      <c r="Q260" s="6"/>
-      <c r="R260" s="6"/>
-      <c r="S260" s="6"/>
-      <c r="T260" s="6"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="154">
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="E233:L233"/>
+    <mergeCell ref="M233:T233"/>
+    <mergeCell ref="E74:T74"/>
+    <mergeCell ref="E75:T75"/>
+    <mergeCell ref="E73:T73"/>
+    <mergeCell ref="E109:T109"/>
+    <mergeCell ref="E82:T82"/>
+    <mergeCell ref="E81:T81"/>
+    <mergeCell ref="E76:T76"/>
+    <mergeCell ref="E77:T77"/>
+    <mergeCell ref="E78:T78"/>
+    <mergeCell ref="E79:T79"/>
+    <mergeCell ref="E80:T80"/>
+    <mergeCell ref="E84:T84"/>
+    <mergeCell ref="E83:T83"/>
+    <mergeCell ref="E93:T93"/>
+    <mergeCell ref="E94:T94"/>
+    <mergeCell ref="E95:T95"/>
+    <mergeCell ref="E68:T68"/>
+    <mergeCell ref="E67:T67"/>
+    <mergeCell ref="E65:T65"/>
+    <mergeCell ref="E100:T100"/>
+    <mergeCell ref="E238:L238"/>
+    <mergeCell ref="M238:T238"/>
+    <mergeCell ref="E237:L237"/>
+    <mergeCell ref="M237:T237"/>
+    <mergeCell ref="E236:L236"/>
+    <mergeCell ref="M236:T236"/>
+    <mergeCell ref="E235:L235"/>
+    <mergeCell ref="M235:T235"/>
+    <mergeCell ref="E234:L234"/>
+    <mergeCell ref="M234:T234"/>
+    <mergeCell ref="E190:L190"/>
+    <mergeCell ref="M190:T190"/>
+    <mergeCell ref="E191:L191"/>
+    <mergeCell ref="E101:T101"/>
+    <mergeCell ref="E102:T102"/>
+    <mergeCell ref="E103:T103"/>
+    <mergeCell ref="E104:T104"/>
+    <mergeCell ref="E204:L204"/>
+    <mergeCell ref="M204:T204"/>
+    <mergeCell ref="E203:L203"/>
+    <mergeCell ref="M203:T203"/>
+    <mergeCell ref="E202:L202"/>
+    <mergeCell ref="E247:L247"/>
+    <mergeCell ref="E248:L248"/>
+    <mergeCell ref="E241:L241"/>
+    <mergeCell ref="M241:T241"/>
+    <mergeCell ref="E240:L240"/>
+    <mergeCell ref="M240:T240"/>
+    <mergeCell ref="E239:L239"/>
+    <mergeCell ref="M239:T239"/>
+    <mergeCell ref="E245:L245"/>
+    <mergeCell ref="M247:T247"/>
+    <mergeCell ref="M246:T246"/>
+    <mergeCell ref="M245:T245"/>
+    <mergeCell ref="M244:T244"/>
+    <mergeCell ref="M243:T243"/>
+    <mergeCell ref="M242:T242"/>
+    <mergeCell ref="E244:L244"/>
+    <mergeCell ref="E246:L246"/>
+    <mergeCell ref="E61:T61"/>
+    <mergeCell ref="E60:T60"/>
+    <mergeCell ref="E99:T99"/>
+    <mergeCell ref="E98:T98"/>
+    <mergeCell ref="E85:T85"/>
+    <mergeCell ref="E86:T86"/>
+    <mergeCell ref="E87:T87"/>
+    <mergeCell ref="E88:T88"/>
+    <mergeCell ref="E89:T89"/>
+    <mergeCell ref="E90:T90"/>
+    <mergeCell ref="E91:T91"/>
+    <mergeCell ref="E92:T92"/>
+    <mergeCell ref="E96:T96"/>
+    <mergeCell ref="E97:T97"/>
+    <mergeCell ref="E66:T66"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="E52:T52"/>
+    <mergeCell ref="E51:T51"/>
+    <mergeCell ref="E50:T50"/>
+    <mergeCell ref="E54:T54"/>
+    <mergeCell ref="E53:T53"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="E49:T49"/>
+    <mergeCell ref="E48:T48"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="E59:T59"/>
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E56:T56"/>
+    <mergeCell ref="E55:T55"/>
+    <mergeCell ref="E64:T64"/>
+    <mergeCell ref="E63:T63"/>
+    <mergeCell ref="E62:T62"/>
+    <mergeCell ref="E260:L260"/>
+    <mergeCell ref="M260:T260"/>
+    <mergeCell ref="E259:L259"/>
+    <mergeCell ref="M259:T259"/>
+    <mergeCell ref="E258:L258"/>
+    <mergeCell ref="M258:T258"/>
+    <mergeCell ref="E198:L198"/>
+    <mergeCell ref="M198:T198"/>
+    <mergeCell ref="E197:L197"/>
+    <mergeCell ref="M197:T197"/>
+    <mergeCell ref="E220:L220"/>
+    <mergeCell ref="M220:T220"/>
+    <mergeCell ref="E219:L219"/>
+    <mergeCell ref="E243:L243"/>
+    <mergeCell ref="E242:L242"/>
+    <mergeCell ref="M248:T248"/>
+    <mergeCell ref="M202:T202"/>
+    <mergeCell ref="E201:L201"/>
+    <mergeCell ref="M201:T201"/>
+    <mergeCell ref="E200:L200"/>
+    <mergeCell ref="M200:T200"/>
+    <mergeCell ref="E199:L199"/>
+    <mergeCell ref="M199:T199"/>
+    <mergeCell ref="E116:T116"/>
+    <mergeCell ref="E108:T108"/>
+    <mergeCell ref="E194:L194"/>
+    <mergeCell ref="M194:T194"/>
+    <mergeCell ref="E193:L193"/>
+    <mergeCell ref="M193:T193"/>
+    <mergeCell ref="E189:L189"/>
+    <mergeCell ref="M189:T189"/>
     <mergeCell ref="E107:T107"/>
     <mergeCell ref="E106:T106"/>
     <mergeCell ref="E105:T105"/>
@@ -6448,135 +6592,6 @@
     <mergeCell ref="M196:T196"/>
     <mergeCell ref="E195:L195"/>
     <mergeCell ref="M195:T195"/>
-    <mergeCell ref="M202:T202"/>
-    <mergeCell ref="E201:L201"/>
-    <mergeCell ref="M201:T201"/>
-    <mergeCell ref="E200:L200"/>
-    <mergeCell ref="M200:T200"/>
-    <mergeCell ref="E199:L199"/>
-    <mergeCell ref="M199:T199"/>
-    <mergeCell ref="E116:T116"/>
-    <mergeCell ref="E108:T108"/>
-    <mergeCell ref="E194:L194"/>
-    <mergeCell ref="M194:T194"/>
-    <mergeCell ref="E193:L193"/>
-    <mergeCell ref="M193:T193"/>
-    <mergeCell ref="E189:L189"/>
-    <mergeCell ref="M189:T189"/>
-    <mergeCell ref="E59:T59"/>
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E56:T56"/>
-    <mergeCell ref="E55:T55"/>
-    <mergeCell ref="E64:T64"/>
-    <mergeCell ref="E63:T63"/>
-    <mergeCell ref="E62:T62"/>
-    <mergeCell ref="E260:L260"/>
-    <mergeCell ref="M260:T260"/>
-    <mergeCell ref="E259:L259"/>
-    <mergeCell ref="M259:T259"/>
-    <mergeCell ref="E258:L258"/>
-    <mergeCell ref="M258:T258"/>
-    <mergeCell ref="E198:L198"/>
-    <mergeCell ref="M198:T198"/>
-    <mergeCell ref="E197:L197"/>
-    <mergeCell ref="M197:T197"/>
-    <mergeCell ref="E220:L220"/>
-    <mergeCell ref="M220:T220"/>
-    <mergeCell ref="E219:L219"/>
-    <mergeCell ref="E243:L243"/>
-    <mergeCell ref="E242:L242"/>
-    <mergeCell ref="M248:T248"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="E52:T52"/>
-    <mergeCell ref="E51:T51"/>
-    <mergeCell ref="E50:T50"/>
-    <mergeCell ref="E54:T54"/>
-    <mergeCell ref="E53:T53"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="E49:T49"/>
-    <mergeCell ref="E48:T48"/>
-    <mergeCell ref="E61:T61"/>
-    <mergeCell ref="E60:T60"/>
-    <mergeCell ref="E99:T99"/>
-    <mergeCell ref="E98:T98"/>
-    <mergeCell ref="E85:T85"/>
-    <mergeCell ref="E86:T86"/>
-    <mergeCell ref="E87:T87"/>
-    <mergeCell ref="E88:T88"/>
-    <mergeCell ref="E89:T89"/>
-    <mergeCell ref="E90:T90"/>
-    <mergeCell ref="E91:T91"/>
-    <mergeCell ref="E92:T92"/>
-    <mergeCell ref="E96:T96"/>
-    <mergeCell ref="E97:T97"/>
-    <mergeCell ref="E247:L247"/>
-    <mergeCell ref="E248:L248"/>
-    <mergeCell ref="E241:L241"/>
-    <mergeCell ref="M241:T241"/>
-    <mergeCell ref="E240:L240"/>
-    <mergeCell ref="M240:T240"/>
-    <mergeCell ref="E239:L239"/>
-    <mergeCell ref="M239:T239"/>
-    <mergeCell ref="E245:L245"/>
-    <mergeCell ref="M247:T247"/>
-    <mergeCell ref="M246:T246"/>
-    <mergeCell ref="M245:T245"/>
-    <mergeCell ref="M244:T244"/>
-    <mergeCell ref="M243:T243"/>
-    <mergeCell ref="M242:T242"/>
-    <mergeCell ref="E244:L244"/>
-    <mergeCell ref="E246:L246"/>
-    <mergeCell ref="E66:T66"/>
-    <mergeCell ref="E100:T100"/>
-    <mergeCell ref="E238:L238"/>
-    <mergeCell ref="M238:T238"/>
-    <mergeCell ref="E237:L237"/>
-    <mergeCell ref="M237:T237"/>
-    <mergeCell ref="E236:L236"/>
-    <mergeCell ref="M236:T236"/>
-    <mergeCell ref="E235:L235"/>
-    <mergeCell ref="M235:T235"/>
-    <mergeCell ref="E234:L234"/>
-    <mergeCell ref="M234:T234"/>
-    <mergeCell ref="E190:L190"/>
-    <mergeCell ref="M190:T190"/>
-    <mergeCell ref="E191:L191"/>
-    <mergeCell ref="E101:T101"/>
-    <mergeCell ref="E102:T102"/>
-    <mergeCell ref="E103:T103"/>
-    <mergeCell ref="E104:T104"/>
-    <mergeCell ref="E204:L204"/>
-    <mergeCell ref="M204:T204"/>
-    <mergeCell ref="E203:L203"/>
-    <mergeCell ref="M203:T203"/>
-    <mergeCell ref="E202:L202"/>
-    <mergeCell ref="M30:T30"/>
-    <mergeCell ref="M29:T29"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="E233:L233"/>
-    <mergeCell ref="M233:T233"/>
-    <mergeCell ref="E74:T74"/>
-    <mergeCell ref="E75:T75"/>
-    <mergeCell ref="E73:T73"/>
-    <mergeCell ref="E109:T109"/>
-    <mergeCell ref="E82:T82"/>
-    <mergeCell ref="E81:T81"/>
-    <mergeCell ref="E76:T76"/>
-    <mergeCell ref="E77:T77"/>
-    <mergeCell ref="E78:T78"/>
-    <mergeCell ref="E79:T79"/>
-    <mergeCell ref="E80:T80"/>
-    <mergeCell ref="E84:T84"/>
-    <mergeCell ref="E83:T83"/>
-    <mergeCell ref="E93:T93"/>
-    <mergeCell ref="E94:T94"/>
-    <mergeCell ref="E95:T95"/>
-    <mergeCell ref="E68:T68"/>
-    <mergeCell ref="E67:T67"/>
-    <mergeCell ref="E65:T65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/外设地址分配表.xlsx
+++ b/doc/外设地址分配表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,13 +910,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +937,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:T260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45:T45"/>
+      <selection activeCell="M45" sqref="C45:T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,27 +1251,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -2116,24 +2116,24 @@
         <f t="shared" si="0"/>
         <v>1CA</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
@@ -2143,24 +2143,24 @@
         <f t="shared" si="0"/>
         <v>1C8</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
@@ -2188,24 +2188,24 @@
         <f t="shared" si="0"/>
         <v>1C2</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
@@ -2215,24 +2215,24 @@
         <f t="shared" si="0"/>
         <v>1C0</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
@@ -2314,16 +2314,16 @@
         <f t="shared" si="0"/>
         <v>1AE</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
@@ -2341,16 +2341,16 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
@@ -2360,16 +2360,16 @@
         <f t="shared" si="0"/>
         <v>1AA</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
@@ -2379,24 +2379,24 @@
         <f t="shared" si="0"/>
         <v>1A8</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
@@ -2406,24 +2406,24 @@
         <f t="shared" si="0"/>
         <v>1A6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
@@ -2433,24 +2433,24 @@
         <f t="shared" si="0"/>
         <v>1A4</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
@@ -2460,24 +2460,24 @@
         <f t="shared" si="0"/>
         <v>1A2</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
@@ -2487,24 +2487,24 @@
         <f t="shared" si="0"/>
         <v>1A0</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
@@ -2514,24 +2514,24 @@
         <f t="shared" si="0"/>
         <v>19E</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
@@ -2541,24 +2541,24 @@
         <f t="shared" si="0"/>
         <v>19C</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
@@ -2568,24 +2568,24 @@
         <f t="shared" si="0"/>
         <v>19A</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
@@ -2595,24 +2595,24 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
@@ -2622,24 +2622,24 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
@@ -2649,24 +2649,24 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
@@ -2676,24 +2676,24 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
@@ -2703,24 +2703,24 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
@@ -2730,24 +2730,24 @@
         <f t="shared" si="0"/>
         <v>18E</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
@@ -2757,24 +2757,24 @@
         <f t="shared" si="0"/>
         <v>18C</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
@@ -2784,24 +2784,24 @@
         <f t="shared" si="0"/>
         <v>18A</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
@@ -2811,24 +2811,24 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
@@ -2838,24 +2838,24 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
@@ -2865,24 +2865,24 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
@@ -2892,24 +2892,24 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
@@ -2919,24 +2919,24 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
@@ -2982,24 +2982,24 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
@@ -3009,24 +3009,24 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
@@ -3036,24 +3036,24 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
@@ -3063,24 +3063,24 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
@@ -3090,22 +3090,22 @@
         <f t="shared" si="1"/>
         <v>16E</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
@@ -3115,22 +3115,22 @@
         <f t="shared" si="1"/>
         <v>16C</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
@@ -3140,22 +3140,22 @@
         <f t="shared" si="1"/>
         <v>16A</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
@@ -3165,22 +3165,22 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
@@ -3190,24 +3190,24 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
@@ -3217,24 +3217,24 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
@@ -3244,24 +3244,24 @@
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
@@ -3271,24 +3271,24 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
@@ -3298,24 +3298,24 @@
         <f t="shared" si="1"/>
         <v>15E</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
@@ -3325,24 +3325,24 @@
         <f t="shared" si="1"/>
         <v>15C</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
@@ -3352,24 +3352,24 @@
         <f t="shared" si="1"/>
         <v>15A</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
@@ -3379,24 +3379,24 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
@@ -3406,24 +3406,24 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
@@ -3433,24 +3433,24 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
@@ -3460,24 +3460,24 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
@@ -3487,24 +3487,24 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
@@ -3514,24 +3514,24 @@
         <f t="shared" si="1"/>
         <v>14E</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
@@ -3541,24 +3541,24 @@
         <f t="shared" si="1"/>
         <v>14C</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B95" s="4">
@@ -3568,24 +3568,24 @@
         <f t="shared" si="1"/>
         <v>14A</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B96" s="4">
@@ -3595,24 +3595,24 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B97" s="4">
@@ -3622,24 +3622,24 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B98" s="4">
@@ -3649,24 +3649,24 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B99" s="4">
@@ -3676,24 +3676,24 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B100" s="4">
@@ -3703,24 +3703,24 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B101" s="4">
@@ -3730,24 +3730,24 @@
         <f t="shared" si="1"/>
         <v>13E</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B102" s="4">
@@ -3757,24 +3757,24 @@
         <f t="shared" si="1"/>
         <v>13C</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B103" s="4">
@@ -3784,24 +3784,24 @@
         <f t="shared" si="1"/>
         <v>13A</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B104" s="4">
@@ -3811,24 +3811,24 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B105" s="4">
@@ -3838,24 +3838,24 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B106" s="4">
@@ -3865,24 +3865,24 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B107" s="4">
@@ -3892,24 +3892,24 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B108" s="4">
@@ -3919,24 +3919,24 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B109" s="4">
@@ -3946,24 +3946,24 @@
         <f t="shared" si="1"/>
         <v>12E</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B110" s="4">
@@ -3973,24 +3973,24 @@
         <f t="shared" si="1"/>
         <v>12C</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B111" s="4">
@@ -4000,24 +4000,24 @@
         <f t="shared" si="1"/>
         <v>12A</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B112" s="4">
@@ -4027,24 +4027,24 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B113" s="4">
@@ -4165,24 +4165,24 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B117" s="4">
@@ -4192,24 +4192,24 @@
         <f t="shared" si="1"/>
         <v>11E</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B118" s="4">
@@ -4219,24 +4219,24 @@
         <f t="shared" si="1"/>
         <v>11C</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B119" s="4">
@@ -4246,24 +4246,24 @@
         <f t="shared" si="1"/>
         <v>11A</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B120" s="4">
@@ -4273,24 +4273,24 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B121" s="4">
@@ -4912,26 +4912,26 @@
         <f t="shared" si="2"/>
         <v>8E</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5" t="s">
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="6"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B190" s="4">
@@ -4941,26 +4941,26 @@
         <f t="shared" si="2"/>
         <v>8C</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5" t="s">
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B191" s="4">
@@ -4970,26 +4970,26 @@
         <f t="shared" si="2"/>
         <v>8A</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="5" t="s">
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B192" s="4">
@@ -4999,26 +4999,26 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="5" t="s">
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B193" s="4">
@@ -5028,26 +5028,26 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5" t="s">
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B194" s="4">
@@ -5057,26 +5057,26 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="5" t="s">
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5"/>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="4">
@@ -5086,26 +5086,26 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="5" t="s">
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5"/>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B196" s="4">
@@ -5115,26 +5115,26 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5" t="s">
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B197" s="4">
@@ -5144,26 +5144,26 @@
         <f t="shared" ref="C197:C260" si="3">DEC2HEX(B197)</f>
         <v>7E</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5" t="s">
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B198" s="4">
@@ -5173,26 +5173,26 @@
         <f t="shared" si="3"/>
         <v>7C</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5" t="s">
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
     </row>
     <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="4">
@@ -5202,26 +5202,26 @@
         <f t="shared" si="3"/>
         <v>7A</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5" t="s">
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B200" s="4">
@@ -5231,26 +5231,26 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5" t="s">
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B201" s="4">
@@ -5260,26 +5260,26 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5" t="s">
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B202" s="4">
@@ -5289,26 +5289,26 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5" t="s">
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B203" s="4">
@@ -5318,26 +5318,26 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5" t="s">
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B204" s="4">
@@ -5347,26 +5347,26 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5" t="s">
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="5"/>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
     </row>
     <row r="205" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B205" s="4">
@@ -5466,26 +5466,26 @@
         <f t="shared" si="3"/>
         <v>5A</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
-      <c r="J215" s="6"/>
-      <c r="K215" s="6"/>
-      <c r="L215" s="6"/>
-      <c r="M215" s="6" t="s">
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N215" s="6"/>
-      <c r="O215" s="6"/>
-      <c r="P215" s="6"/>
-      <c r="Q215" s="6"/>
-      <c r="R215" s="6"/>
-      <c r="S215" s="6"/>
-      <c r="T215" s="6"/>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="7"/>
+      <c r="S215" s="7"/>
+      <c r="T215" s="7"/>
     </row>
     <row r="216" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B216" s="4">
@@ -5495,26 +5495,26 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="E216" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="6" t="s">
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="N216" s="6"/>
-      <c r="O216" s="6"/>
-      <c r="P216" s="6"/>
-      <c r="Q216" s="6"/>
-      <c r="R216" s="6"/>
-      <c r="S216" s="6"/>
-      <c r="T216" s="6"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="7"/>
+      <c r="P216" s="7"/>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="7"/>
+      <c r="T216" s="7"/>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B217" s="4">
@@ -5524,26 +5524,26 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5" t="s">
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B218" s="4">
@@ -5553,16 +5553,16 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="M218" s="5" t="s">
+      <c r="M218" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N218" s="6"/>
-      <c r="O218" s="6"/>
-      <c r="P218" s="6"/>
-      <c r="Q218" s="6"/>
-      <c r="R218" s="6"/>
-      <c r="S218" s="6"/>
-      <c r="T218" s="6"/>
+      <c r="N218" s="7"/>
+      <c r="O218" s="7"/>
+      <c r="P218" s="7"/>
+      <c r="Q218" s="7"/>
+      <c r="R218" s="7"/>
+      <c r="S218" s="7"/>
+      <c r="T218" s="7"/>
     </row>
     <row r="219" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B219" s="4">
@@ -5572,16 +5572,16 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E219" s="5" t="s">
+      <c r="E219" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -5599,26 +5599,26 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="E220" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
-      <c r="M220" s="5" t="s">
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N220" s="5"/>
-      <c r="O220" s="5"/>
-      <c r="P220" s="5"/>
-      <c r="Q220" s="5"/>
-      <c r="R220" s="5"/>
-      <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
     </row>
     <row r="221" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B221" s="4">
@@ -5816,26 +5816,26 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E233" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="M233" s="7" t="s">
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N233" s="7"/>
-      <c r="O233" s="7"/>
-      <c r="P233" s="7"/>
-      <c r="Q233" s="7"/>
-      <c r="R233" s="7"/>
-      <c r="S233" s="7"/>
-      <c r="T233" s="7"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
     </row>
     <row r="234" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B234" s="4">
@@ -5845,26 +5845,26 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="E234" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="7"/>
-      <c r="L234" s="7"/>
-      <c r="M234" s="7" t="s">
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N234" s="7"/>
-      <c r="O234" s="7"/>
-      <c r="P234" s="7"/>
-      <c r="Q234" s="7"/>
-      <c r="R234" s="7"/>
-      <c r="S234" s="7"/>
-      <c r="T234" s="7"/>
+      <c r="N234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
     </row>
     <row r="235" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B235" s="4">
@@ -5874,26 +5874,26 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="E235" s="7" t="s">
+      <c r="E235" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
-      <c r="L235" s="7"/>
-      <c r="M235" s="7" t="s">
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N235" s="7"/>
-      <c r="O235" s="7"/>
-      <c r="P235" s="7"/>
-      <c r="Q235" s="7"/>
-      <c r="R235" s="7"/>
-      <c r="S235" s="7"/>
-      <c r="T235" s="7"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
     </row>
     <row r="236" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B236" s="4">
@@ -5903,26 +5903,26 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="E236" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="7"/>
-      <c r="M236" s="7" t="s">
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N236" s="7"/>
-      <c r="O236" s="7"/>
-      <c r="P236" s="7"/>
-      <c r="Q236" s="7"/>
-      <c r="R236" s="7"/>
-      <c r="S236" s="7"/>
-      <c r="T236" s="7"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
     </row>
     <row r="237" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B237" s="4">
@@ -5932,24 +5932,24 @@
         <f t="shared" si="3"/>
         <v>2E</v>
       </c>
-      <c r="E237" s="7" t="s">
+      <c r="E237" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
-      <c r="L237" s="7"/>
-      <c r="M237" s="7"/>
-      <c r="N237" s="7"/>
-      <c r="O237" s="7"/>
-      <c r="P237" s="7"/>
-      <c r="Q237" s="7"/>
-      <c r="R237" s="7"/>
-      <c r="S237" s="7"/>
-      <c r="T237" s="7"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
     </row>
     <row r="238" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B238" s="4">
@@ -5959,26 +5959,26 @@
         <f t="shared" si="3"/>
         <v>2C</v>
       </c>
-      <c r="E238" s="7" t="s">
+      <c r="E238" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
-      <c r="L238" s="7"/>
-      <c r="M238" s="7" t="s">
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N238" s="7"/>
-      <c r="O238" s="7"/>
-      <c r="P238" s="7"/>
-      <c r="Q238" s="7"/>
-      <c r="R238" s="7"/>
-      <c r="S238" s="7"/>
-      <c r="T238" s="7"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
     </row>
     <row r="239" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B239" s="4">
@@ -5988,26 +5988,26 @@
         <f t="shared" si="3"/>
         <v>2A</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="E239" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="7"/>
-      <c r="M239" s="7" t="s">
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N239" s="7"/>
-      <c r="O239" s="7"/>
-      <c r="P239" s="7"/>
-      <c r="Q239" s="7"/>
-      <c r="R239" s="7"/>
-      <c r="S239" s="7"/>
-      <c r="T239" s="7"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
     </row>
     <row r="240" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B240" s="4">
@@ -6017,26 +6017,26 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E240" s="7" t="s">
+      <c r="E240" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="7"/>
-      <c r="M240" s="7" t="s">
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N240" s="7"/>
-      <c r="O240" s="7"/>
-      <c r="P240" s="7"/>
-      <c r="Q240" s="7"/>
-      <c r="R240" s="7"/>
-      <c r="S240" s="7"/>
-      <c r="T240" s="7"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
     </row>
     <row r="241" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B241" s="4">
@@ -6046,24 +6046,24 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E241" s="7" t="s">
+      <c r="E241" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="7"/>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="7"/>
-      <c r="M241" s="7"/>
-      <c r="N241" s="7"/>
-      <c r="O241" s="7"/>
-      <c r="P241" s="7"/>
-      <c r="Q241" s="7"/>
-      <c r="R241" s="7"/>
-      <c r="S241" s="7"/>
-      <c r="T241" s="7"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5"/>
+      <c r="T241" s="5"/>
     </row>
     <row r="242" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B242" s="4">
@@ -6073,26 +6073,26 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E242" s="7" t="s">
+      <c r="E242" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="7"/>
-      <c r="J242" s="7"/>
-      <c r="K242" s="7"/>
-      <c r="L242" s="7"/>
-      <c r="M242" s="7" t="s">
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N242" s="7"/>
-      <c r="O242" s="7"/>
-      <c r="P242" s="7"/>
-      <c r="Q242" s="7"/>
-      <c r="R242" s="7"/>
-      <c r="S242" s="7"/>
-      <c r="T242" s="7"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
     </row>
     <row r="243" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B243" s="4">
@@ -6102,26 +6102,26 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E243" s="7" t="s">
+      <c r="E243" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-      <c r="J243" s="7"/>
-      <c r="K243" s="7"/>
-      <c r="L243" s="7"/>
-      <c r="M243" s="7" t="s">
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N243" s="7"/>
-      <c r="O243" s="7"/>
-      <c r="P243" s="7"/>
-      <c r="Q243" s="7"/>
-      <c r="R243" s="7"/>
-      <c r="S243" s="7"/>
-      <c r="T243" s="7"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
     </row>
     <row r="244" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B244" s="4">
@@ -6131,26 +6131,26 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="E244" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="7"/>
-      <c r="K244" s="7"/>
-      <c r="L244" s="7"/>
-      <c r="M244" s="7" t="s">
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N244" s="7"/>
-      <c r="O244" s="7"/>
-      <c r="P244" s="7"/>
-      <c r="Q244" s="7"/>
-      <c r="R244" s="7"/>
-      <c r="S244" s="7"/>
-      <c r="T244" s="7"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
     </row>
     <row r="245" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B245" s="4">
@@ -6160,26 +6160,26 @@
         <f t="shared" si="3"/>
         <v>1E</v>
       </c>
-      <c r="E245" s="7" t="s">
+      <c r="E245" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="7"/>
-      <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
-      <c r="L245" s="7"/>
-      <c r="M245" s="7" t="s">
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N245" s="7"/>
-      <c r="O245" s="7"/>
-      <c r="P245" s="7"/>
-      <c r="Q245" s="7"/>
-      <c r="R245" s="7"/>
-      <c r="S245" s="7"/>
-      <c r="T245" s="7"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
     </row>
     <row r="246" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B246" s="4">
@@ -6189,26 +6189,26 @@
         <f t="shared" si="3"/>
         <v>1C</v>
       </c>
-      <c r="E246" s="7" t="s">
+      <c r="E246" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="7"/>
-      <c r="J246" s="7"/>
-      <c r="K246" s="7"/>
-      <c r="L246" s="7"/>
-      <c r="M246" s="7" t="s">
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N246" s="7"/>
-      <c r="O246" s="7"/>
-      <c r="P246" s="7"/>
-      <c r="Q246" s="7"/>
-      <c r="R246" s="7"/>
-      <c r="S246" s="7"/>
-      <c r="T246" s="7"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
     </row>
     <row r="247" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B247" s="4">
@@ -6218,26 +6218,26 @@
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="E247" s="7" t="s">
+      <c r="E247" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
-      <c r="L247" s="7"/>
-      <c r="M247" s="7" t="s">
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N247" s="7"/>
-      <c r="O247" s="7"/>
-      <c r="P247" s="7"/>
-      <c r="Q247" s="7"/>
-      <c r="R247" s="7"/>
-      <c r="S247" s="7"/>
-      <c r="T247" s="7"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+      <c r="R247" s="5"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="5"/>
     </row>
     <row r="248" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B248" s="4">
@@ -6247,26 +6247,26 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="E248" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7"/>
-      <c r="L248" s="7"/>
-      <c r="M248" s="7" t="s">
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N248" s="7"/>
-      <c r="O248" s="7"/>
-      <c r="P248" s="7"/>
-      <c r="Q248" s="7"/>
-      <c r="R248" s="7"/>
-      <c r="S248" s="7"/>
-      <c r="T248" s="7"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+      <c r="R248" s="5"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="5"/>
     </row>
     <row r="249" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B249" s="4">
@@ -6357,26 +6357,26 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E258" s="5" t="s">
+      <c r="E258" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5"/>
-      <c r="H258" s="5"/>
-      <c r="I258" s="5"/>
-      <c r="J258" s="5"/>
-      <c r="K258" s="5"/>
-      <c r="L258" s="5"/>
-      <c r="M258" s="5" t="s">
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-      <c r="P258" s="5"/>
-      <c r="Q258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="6"/>
+      <c r="T258" s="6"/>
     </row>
     <row r="259" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B259" s="4">
@@ -6386,26 +6386,26 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E259" s="5" t="s">
+      <c r="E259" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5" t="s">
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="6"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="6"/>
+      <c r="T259" s="6"/>
     </row>
     <row r="260" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B260" s="4">
@@ -6415,29 +6415,159 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E260" s="5" t="s">
+      <c r="E260" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5"/>
-      <c r="K260" s="5"/>
-      <c r="L260" s="5"/>
-      <c r="M260" s="5" t="s">
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N260" s="5"/>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5"/>
-      <c r="Q260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="6"/>
+      <c r="T260" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="E107:T107"/>
+    <mergeCell ref="E106:T106"/>
+    <mergeCell ref="E105:T105"/>
+    <mergeCell ref="M191:T191"/>
+    <mergeCell ref="E192:L192"/>
+    <mergeCell ref="M192:T192"/>
+    <mergeCell ref="M218:T218"/>
+    <mergeCell ref="E112:T112"/>
+    <mergeCell ref="E111:T111"/>
+    <mergeCell ref="E110:T110"/>
+    <mergeCell ref="M216:T216"/>
+    <mergeCell ref="E215:L215"/>
+    <mergeCell ref="M215:T215"/>
+    <mergeCell ref="E120:T120"/>
+    <mergeCell ref="E119:T119"/>
+    <mergeCell ref="E118:T118"/>
+    <mergeCell ref="E217:L217"/>
+    <mergeCell ref="M217:T217"/>
+    <mergeCell ref="E216:L216"/>
+    <mergeCell ref="E117:T117"/>
+    <mergeCell ref="E196:L196"/>
+    <mergeCell ref="M196:T196"/>
+    <mergeCell ref="E195:L195"/>
+    <mergeCell ref="M195:T195"/>
+    <mergeCell ref="E201:L201"/>
+    <mergeCell ref="M201:T201"/>
+    <mergeCell ref="E200:L200"/>
+    <mergeCell ref="M200:T200"/>
+    <mergeCell ref="E199:L199"/>
+    <mergeCell ref="M199:T199"/>
+    <mergeCell ref="E116:T116"/>
+    <mergeCell ref="E108:T108"/>
+    <mergeCell ref="E194:L194"/>
+    <mergeCell ref="M194:T194"/>
+    <mergeCell ref="E193:L193"/>
+    <mergeCell ref="M193:T193"/>
+    <mergeCell ref="E189:L189"/>
+    <mergeCell ref="M189:T189"/>
+    <mergeCell ref="E59:T59"/>
+    <mergeCell ref="E58:T58"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E56:T56"/>
+    <mergeCell ref="E55:T55"/>
+    <mergeCell ref="E64:T64"/>
+    <mergeCell ref="E63:T63"/>
+    <mergeCell ref="E62:T62"/>
+    <mergeCell ref="E260:L260"/>
+    <mergeCell ref="M260:T260"/>
+    <mergeCell ref="E259:L259"/>
+    <mergeCell ref="M259:T259"/>
+    <mergeCell ref="E258:L258"/>
+    <mergeCell ref="M258:T258"/>
+    <mergeCell ref="E198:L198"/>
+    <mergeCell ref="M198:T198"/>
+    <mergeCell ref="E197:L197"/>
+    <mergeCell ref="M197:T197"/>
+    <mergeCell ref="E220:L220"/>
+    <mergeCell ref="M220:T220"/>
+    <mergeCell ref="E219:L219"/>
+    <mergeCell ref="E243:L243"/>
+    <mergeCell ref="E242:L242"/>
+    <mergeCell ref="M248:T248"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="E52:T52"/>
+    <mergeCell ref="E51:T51"/>
+    <mergeCell ref="E50:T50"/>
+    <mergeCell ref="E54:T54"/>
+    <mergeCell ref="E53:T53"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="E49:T49"/>
+    <mergeCell ref="E48:T48"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="E61:T61"/>
+    <mergeCell ref="E60:T60"/>
+    <mergeCell ref="E99:T99"/>
+    <mergeCell ref="E98:T98"/>
+    <mergeCell ref="E85:T85"/>
+    <mergeCell ref="E86:T86"/>
+    <mergeCell ref="E87:T87"/>
+    <mergeCell ref="E88:T88"/>
+    <mergeCell ref="E89:T89"/>
+    <mergeCell ref="E90:T90"/>
+    <mergeCell ref="E91:T91"/>
+    <mergeCell ref="E92:T92"/>
+    <mergeCell ref="E96:T96"/>
+    <mergeCell ref="E97:T97"/>
+    <mergeCell ref="E66:T66"/>
+    <mergeCell ref="E247:L247"/>
+    <mergeCell ref="E248:L248"/>
+    <mergeCell ref="E241:L241"/>
+    <mergeCell ref="M241:T241"/>
+    <mergeCell ref="E240:L240"/>
+    <mergeCell ref="M240:T240"/>
+    <mergeCell ref="E239:L239"/>
+    <mergeCell ref="M239:T239"/>
+    <mergeCell ref="E245:L245"/>
+    <mergeCell ref="M247:T247"/>
+    <mergeCell ref="M246:T246"/>
+    <mergeCell ref="M245:T245"/>
+    <mergeCell ref="M244:T244"/>
+    <mergeCell ref="M243:T243"/>
+    <mergeCell ref="M242:T242"/>
+    <mergeCell ref="E244:L244"/>
+    <mergeCell ref="E246:L246"/>
+    <mergeCell ref="E100:T100"/>
+    <mergeCell ref="E238:L238"/>
+    <mergeCell ref="M238:T238"/>
+    <mergeCell ref="E237:L237"/>
+    <mergeCell ref="M237:T237"/>
+    <mergeCell ref="E236:L236"/>
+    <mergeCell ref="M236:T236"/>
+    <mergeCell ref="E235:L235"/>
+    <mergeCell ref="M235:T235"/>
+    <mergeCell ref="E234:L234"/>
+    <mergeCell ref="M234:T234"/>
+    <mergeCell ref="E190:L190"/>
+    <mergeCell ref="M190:T190"/>
+    <mergeCell ref="E191:L191"/>
+    <mergeCell ref="E101:T101"/>
+    <mergeCell ref="E102:T102"/>
+    <mergeCell ref="E103:T103"/>
+    <mergeCell ref="E104:T104"/>
+    <mergeCell ref="E204:L204"/>
+    <mergeCell ref="M204:T204"/>
+    <mergeCell ref="E203:L203"/>
+    <mergeCell ref="M203:T203"/>
+    <mergeCell ref="E202:L202"/>
+    <mergeCell ref="M202:T202"/>
     <mergeCell ref="M47:T47"/>
     <mergeCell ref="M46:T46"/>
     <mergeCell ref="B1:T1"/>
@@ -6462,136 +6592,6 @@
     <mergeCell ref="E68:T68"/>
     <mergeCell ref="E67:T67"/>
     <mergeCell ref="E65:T65"/>
-    <mergeCell ref="E100:T100"/>
-    <mergeCell ref="E238:L238"/>
-    <mergeCell ref="M238:T238"/>
-    <mergeCell ref="E237:L237"/>
-    <mergeCell ref="M237:T237"/>
-    <mergeCell ref="E236:L236"/>
-    <mergeCell ref="M236:T236"/>
-    <mergeCell ref="E235:L235"/>
-    <mergeCell ref="M235:T235"/>
-    <mergeCell ref="E234:L234"/>
-    <mergeCell ref="M234:T234"/>
-    <mergeCell ref="E190:L190"/>
-    <mergeCell ref="M190:T190"/>
-    <mergeCell ref="E191:L191"/>
-    <mergeCell ref="E101:T101"/>
-    <mergeCell ref="E102:T102"/>
-    <mergeCell ref="E103:T103"/>
-    <mergeCell ref="E104:T104"/>
-    <mergeCell ref="E204:L204"/>
-    <mergeCell ref="M204:T204"/>
-    <mergeCell ref="E203:L203"/>
-    <mergeCell ref="M203:T203"/>
-    <mergeCell ref="E202:L202"/>
-    <mergeCell ref="E247:L247"/>
-    <mergeCell ref="E248:L248"/>
-    <mergeCell ref="E241:L241"/>
-    <mergeCell ref="M241:T241"/>
-    <mergeCell ref="E240:L240"/>
-    <mergeCell ref="M240:T240"/>
-    <mergeCell ref="E239:L239"/>
-    <mergeCell ref="M239:T239"/>
-    <mergeCell ref="E245:L245"/>
-    <mergeCell ref="M247:T247"/>
-    <mergeCell ref="M246:T246"/>
-    <mergeCell ref="M245:T245"/>
-    <mergeCell ref="M244:T244"/>
-    <mergeCell ref="M243:T243"/>
-    <mergeCell ref="M242:T242"/>
-    <mergeCell ref="E244:L244"/>
-    <mergeCell ref="E246:L246"/>
-    <mergeCell ref="E61:T61"/>
-    <mergeCell ref="E60:T60"/>
-    <mergeCell ref="E99:T99"/>
-    <mergeCell ref="E98:T98"/>
-    <mergeCell ref="E85:T85"/>
-    <mergeCell ref="E86:T86"/>
-    <mergeCell ref="E87:T87"/>
-    <mergeCell ref="E88:T88"/>
-    <mergeCell ref="E89:T89"/>
-    <mergeCell ref="E90:T90"/>
-    <mergeCell ref="E91:T91"/>
-    <mergeCell ref="E92:T92"/>
-    <mergeCell ref="E96:T96"/>
-    <mergeCell ref="E97:T97"/>
-    <mergeCell ref="E66:T66"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="E52:T52"/>
-    <mergeCell ref="E51:T51"/>
-    <mergeCell ref="E50:T50"/>
-    <mergeCell ref="E54:T54"/>
-    <mergeCell ref="E53:T53"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="E49:T49"/>
-    <mergeCell ref="E48:T48"/>
-    <mergeCell ref="M45:T45"/>
-    <mergeCell ref="E59:T59"/>
-    <mergeCell ref="E58:T58"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E56:T56"/>
-    <mergeCell ref="E55:T55"/>
-    <mergeCell ref="E64:T64"/>
-    <mergeCell ref="E63:T63"/>
-    <mergeCell ref="E62:T62"/>
-    <mergeCell ref="E260:L260"/>
-    <mergeCell ref="M260:T260"/>
-    <mergeCell ref="E259:L259"/>
-    <mergeCell ref="M259:T259"/>
-    <mergeCell ref="E258:L258"/>
-    <mergeCell ref="M258:T258"/>
-    <mergeCell ref="E198:L198"/>
-    <mergeCell ref="M198:T198"/>
-    <mergeCell ref="E197:L197"/>
-    <mergeCell ref="M197:T197"/>
-    <mergeCell ref="E220:L220"/>
-    <mergeCell ref="M220:T220"/>
-    <mergeCell ref="E219:L219"/>
-    <mergeCell ref="E243:L243"/>
-    <mergeCell ref="E242:L242"/>
-    <mergeCell ref="M248:T248"/>
-    <mergeCell ref="M202:T202"/>
-    <mergeCell ref="E201:L201"/>
-    <mergeCell ref="M201:T201"/>
-    <mergeCell ref="E200:L200"/>
-    <mergeCell ref="M200:T200"/>
-    <mergeCell ref="E199:L199"/>
-    <mergeCell ref="M199:T199"/>
-    <mergeCell ref="E116:T116"/>
-    <mergeCell ref="E108:T108"/>
-    <mergeCell ref="E194:L194"/>
-    <mergeCell ref="M194:T194"/>
-    <mergeCell ref="E193:L193"/>
-    <mergeCell ref="M193:T193"/>
-    <mergeCell ref="E189:L189"/>
-    <mergeCell ref="M189:T189"/>
-    <mergeCell ref="E107:T107"/>
-    <mergeCell ref="E106:T106"/>
-    <mergeCell ref="E105:T105"/>
-    <mergeCell ref="M191:T191"/>
-    <mergeCell ref="E192:L192"/>
-    <mergeCell ref="M192:T192"/>
-    <mergeCell ref="M218:T218"/>
-    <mergeCell ref="E112:T112"/>
-    <mergeCell ref="E111:T111"/>
-    <mergeCell ref="E110:T110"/>
-    <mergeCell ref="M216:T216"/>
-    <mergeCell ref="E215:L215"/>
-    <mergeCell ref="M215:T215"/>
-    <mergeCell ref="E120:T120"/>
-    <mergeCell ref="E119:T119"/>
-    <mergeCell ref="E118:T118"/>
-    <mergeCell ref="E217:L217"/>
-    <mergeCell ref="M217:T217"/>
-    <mergeCell ref="E216:L216"/>
-    <mergeCell ref="E117:T117"/>
-    <mergeCell ref="E196:L196"/>
-    <mergeCell ref="M196:T196"/>
-    <mergeCell ref="E195:L195"/>
-    <mergeCell ref="M195:T195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
